--- a/Бизнес/Вендинг никотиновой жевачки/Вендинг никотиновой жевачки.xlsx
+++ b/Бизнес/Вендинг никотиновой жевачки/Вендинг никотиновой жевачки.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Наименование</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Нужен руководитель - фармацевт.</t>
+  </si>
+  <si>
+    <t>Комментирование всего процесса - прозрачность.</t>
+  </si>
+  <si>
+    <t>Пылесосисть/чистить внутрянку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расчёт замены приводов толкателя. По выходу из строя одного из них. </t>
   </si>
 </sst>
 </file>
@@ -883,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,6 +1259,21 @@
       </c>
       <c r="B35" s="21" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Бизнес/Вендинг никотиновой жевачки/Вендинг никотиновой жевачки.xlsx
+++ b/Бизнес/Вендинг никотиновой жевачки/Вендинг никотиновой жевачки.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="9030"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёты" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="I этап" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>Наименование</t>
   </si>
@@ -154,12 +154,144 @@
   </si>
   <si>
     <t xml:space="preserve">Расчёт замены приводов толкателя. По выходу из строя одного из них. </t>
+  </si>
+  <si>
+    <t>Открытие ООО</t>
+  </si>
+  <si>
+    <t>Уставной капитал</t>
+  </si>
+  <si>
+    <t>Составление устава</t>
+  </si>
+  <si>
+    <t>Найм  генерального директора с фармацевтическим образованием</t>
+  </si>
+  <si>
+    <t>Консультация юриста</t>
+  </si>
+  <si>
+    <t>Вендинговый автомат</t>
+  </si>
+  <si>
+    <t>Заказ продукции</t>
+  </si>
+  <si>
+    <t>Подготовка рекламок</t>
+  </si>
+  <si>
+    <t>Заказ проектирования</t>
+  </si>
+  <si>
+    <t>Доставка в СПб</t>
+  </si>
+  <si>
+    <t>Установка</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Стоимость аренды площади</t>
+  </si>
+  <si>
+    <t>2мг фрукт</t>
+  </si>
+  <si>
+    <t>2мг мята</t>
+  </si>
+  <si>
+    <t>2мг морозная мята</t>
+  </si>
+  <si>
+    <t>4мг мята</t>
+  </si>
+  <si>
+    <t>4мг фрукт</t>
+  </si>
+  <si>
+    <t>4мг морозная мята</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Маркетинг</t>
+  </si>
+  <si>
+    <t>Расчёт спроса</t>
+  </si>
+  <si>
+    <t>Расчёт окупаемости</t>
+  </si>
+  <si>
+    <t>Фармацевт</t>
+  </si>
+  <si>
+    <t>Генеральный директор</t>
+  </si>
+  <si>
+    <t>Первичная загрузка</t>
+  </si>
+  <si>
+    <t>Загрузчик  - обслуживание аппарата</t>
+  </si>
+  <si>
+    <t>Коэффициент</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>Конечная цифра</t>
+  </si>
+  <si>
+    <t>Сервер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Затраты </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первичные </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Постоянные </t>
+  </si>
+  <si>
+    <t>Регистрация</t>
+  </si>
+  <si>
+    <t>Срок выполнения</t>
+  </si>
+  <si>
+    <t>3 месяца</t>
+  </si>
+  <si>
+    <t>Налоги</t>
+  </si>
+  <si>
+    <t>Доход</t>
+  </si>
+  <si>
+    <t>1 неделя</t>
+  </si>
+  <si>
+    <t>Наименование мероприятия</t>
+  </si>
+  <si>
+    <t>Подробности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -590,6 +722,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -894,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1289,13 +1425,710 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13" style="43" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="43">
+        <v>10000</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E26" si="0">C3*D3</f>
+        <v>10000</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G35" si="1">E3*F3</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="43">
+        <v>5000</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="43">
+        <v>25000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="43">
+        <v>4000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="43">
+        <v>1340000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="43">
+        <v>14000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="43">
+        <v>5000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="43">
+        <f>C14*25+C15*25+C16*25+C17*25+C18*25+C19*25 + 2000</f>
+        <v>87350</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="43">
+        <f>SUM(C9:C12)</f>
+        <v>1446350</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="43">
+        <v>569</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>13656</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="43">
+        <v>569</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>13656</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="43">
+        <v>569</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F16">
+        <v>0.8</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>13656</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="43">
+        <v>569</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F17">
+        <v>0.8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>13656</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="43">
+        <v>569</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F18">
+        <v>0.8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>13656</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="43">
+        <v>569</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F19">
+        <v>0.8</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>13656</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E14:E19)</f>
+        <v>102420</v>
+      </c>
+      <c r="F20">
+        <v>0.8</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>81936</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="43">
+        <v>25000</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="43">
+        <v>25000</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="F23">
+        <v>1.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="43">
+        <v>5000</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="F25">
+        <v>0.8</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Бизнес/Вендинг никотиновой жевачки/Вендинг никотиновой жевачки.xlsx
+++ b/Бизнес/Вендинг никотиновой жевачки/Вендинг никотиновой жевачки.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="9030" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="9030" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Расчёты" sheetId="1" r:id="rId1"/>
     <sheet name="I этап" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="II этап" sheetId="3" r:id="rId3"/>
+    <sheet name="III этап" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
   <si>
     <t>Наименование</t>
   </si>
@@ -225,9 +226,6 @@
     <t>Расчёт спроса</t>
   </si>
   <si>
-    <t>Расчёт окупаемости</t>
-  </si>
-  <si>
     <t>Фармацевт</t>
   </si>
   <si>
@@ -270,12 +268,6 @@
     <t>3 месяца</t>
   </si>
   <si>
-    <t>Налоги</t>
-  </si>
-  <si>
-    <t>Доход</t>
-  </si>
-  <si>
     <t>1 неделя</t>
   </si>
   <si>
@@ -283,6 +275,48 @@
   </si>
   <si>
     <t>Подробности</t>
+  </si>
+  <si>
+    <t>Получение лицензии фармацевтической</t>
+  </si>
+  <si>
+    <t>Получение разрешения на дистанционную торговлю лекарствами</t>
+  </si>
+  <si>
+    <t>Постоянные затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого </t>
+  </si>
+  <si>
+    <t>Расчёт доходов</t>
+  </si>
+  <si>
+    <t>Негативный сценарий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Очень оптимистичный сценарий</t>
+  </si>
+  <si>
+    <t>Оптимистичный сценарий</t>
+  </si>
+  <si>
+    <t>НДС с упаковки</t>
+  </si>
+  <si>
+    <t>Общий доход минус налоги</t>
+  </si>
+  <si>
+    <t>1 день</t>
+  </si>
+  <si>
+    <t>Дополнительные расходы</t>
+  </si>
+  <si>
+    <t>Затраты</t>
+  </si>
+  <si>
+    <t>Первичные</t>
   </si>
 </sst>
 </file>
@@ -319,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -651,12 +685,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -726,6 +784,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1425,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,14 +1505,15 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C1" s="43" t="s">
         <v>65</v>
@@ -1460,13 +1525,13 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,14 +1568,14 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E26" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E29" si="0">C3*D3</f>
         <v>10000</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G35" si="1">E3*F3</f>
+        <f t="shared" ref="G3:G39" si="1">E3*F3</f>
         <v>10000</v>
       </c>
     </row>
@@ -1563,7 +1628,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="43">
         <v>4000</v>
@@ -1585,174 +1650,208 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="43">
+        <v>40000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="C8" s="43">
+        <v>40000</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46">
+        <v>1</v>
+      </c>
+      <c r="E9" s="46">
+        <f>SUM(E2:E8)</f>
+        <v>124000</v>
+      </c>
+      <c r="F9" s="46">
+        <v>1</v>
+      </c>
+      <c r="G9" s="47">
+        <f t="shared" si="1"/>
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="43">
-        <v>1340000</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
       <c r="C10" s="43">
-        <v>14000</v>
+        <v>1376000</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1376000</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1376000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="43">
-        <v>5000</v>
+        <v>14000</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C12" s="43">
-        <f>C14*25+C15*25+C16*25+C17*25+C18*25+C19*25 + 2000</f>
-        <v>87350</v>
+        <v>5000</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C13" s="43">
-        <f>SUM(C9:C12)</f>
-        <v>1446350</v>
+        <f>C15*25+C16*25+C17*25+C18*25+C19*25+C20*25 + 2000</f>
+        <v>87350</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87350</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+        <v>87350</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="45">
+        <f>SUM(C10:C13)</f>
+        <v>1482350</v>
+      </c>
+      <c r="D14" s="46">
+        <v>1</v>
+      </c>
+      <c r="E14" s="46">
+        <f>SUM(E10:E13)</f>
+        <v>1482350</v>
+      </c>
+      <c r="F14" s="46">
+        <v>1</v>
+      </c>
+      <c r="G14" s="47">
+        <f t="shared" si="1"/>
+        <v>1482350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" s="43">
-        <v>569</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>17070</v>
-      </c>
-      <c r="F14">
-        <v>0.8</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>13656</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" t="s">
-        <v>59</v>
       </c>
       <c r="C15" s="43">
         <v>569</v>
@@ -1765,20 +1864,20 @@
         <v>17070</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>13656</v>
+        <v>17070</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="43">
         <v>569</v>
@@ -1791,20 +1890,20 @@
         <v>17070</v>
       </c>
       <c r="F16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>13656</v>
+        <v>17070</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="43">
         <v>569</v>
@@ -1817,20 +1916,20 @@
         <v>17070</v>
       </c>
       <c r="F17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>13656</v>
+        <v>17070</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="43">
         <v>569</v>
@@ -1843,20 +1942,20 @@
         <v>17070</v>
       </c>
       <c r="F18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>13656</v>
+        <v>17070</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="43">
         <v>569</v>
@@ -1869,196 +1968,225 @@
         <v>17070</v>
       </c>
       <c r="F19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>13656</v>
+        <v>17070</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44"/>
       <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="43">
+        <v>569</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E20">
-        <f>SUM(E14:E19)</f>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46">
+        <f>SUM(D15:D20)</f>
+        <v>180</v>
+      </c>
+      <c r="E21" s="46">
+        <f>SUM(E15:E20)</f>
         <v>102420</v>
       </c>
-      <c r="F20">
-        <v>0.8</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>81936</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F21" s="46">
+        <v>1</v>
+      </c>
+      <c r="G21" s="47">
+        <f t="shared" si="1"/>
+        <v>102420</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="44" t="s">
+        <v>88</v>
+      </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" s="43">
-        <v>25000</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+        <v>5000</v>
+      </c>
+      <c r="D22" s="48">
+        <v>1</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="F22">
         <v>1.5</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>75000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="43">
         <v>25000</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>50000</v>
       </c>
       <c r="F23">
         <v>1.5</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>37500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="C24" s="43">
+        <v>25000</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C25" s="43">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="43">
         <v>5000</v>
       </c>
-      <c r="F25">
-        <v>0.8</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>77</v>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="C27" s="43">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="2">C27*D27</f>
+        <v>1000</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="G27" si="3">E27*F27</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47">
+        <f>SUM(G22:G27)</f>
+        <v>136000</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
       <c r="F30">
         <v>1</v>
       </c>
@@ -2076,56 +2204,481 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="43">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33" si="4">C33*D33</f>
+        <v>5000</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33" si="5">E33*F33</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="43">
+        <v>10000</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="6">C34*D34</f>
+        <v>10000</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34" si="7">E34*F34</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
         <v>78</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C36" s="43">
+        <f>SUM(G9,G14,G21,G34,G33)</f>
+        <v>1723770</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
+      <c r="C37" s="43">
+        <f>G29</f>
+        <v>136000</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
+      <c r="H38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="43">
+        <v>250</v>
+      </c>
+      <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
+      <c r="E39" s="43">
+        <f>C39*D39</f>
         <v>0</v>
       </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="43">
+        <f>G39-$C$37 - I39*D39+$C$15*0.1*D39</f>
+        <v>-136000</v>
+      </c>
+      <c r="I39" s="43">
+        <f>(C39+$C$15)*10/110</f>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="43">
+        <v>250</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="E40" s="43">
+        <f t="shared" ref="E40:E51" si="8">C40*D40</f>
+        <v>25000</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40:G51" si="9">E40*F40</f>
+        <v>25000</v>
+      </c>
+      <c r="H40" s="43">
+        <f t="shared" ref="H40:H51" si="10">G40-$C$37 - I40*D40+$C$15*0.1*D40</f>
+        <v>-112755.45454545454</v>
+      </c>
+      <c r="I40" s="43">
+        <f t="shared" ref="I40:I51" si="11">(C40+$C$15)*10/110</f>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="43">
+        <v>250</v>
+      </c>
+      <c r="D41">
+        <v>200</v>
+      </c>
+      <c r="E41" s="43">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="9"/>
+        <v>50000</v>
+      </c>
+      <c r="H41" s="43">
+        <f t="shared" si="10"/>
+        <v>-89510.909090909088</v>
+      </c>
+      <c r="I41" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="43">
+        <v>250</v>
+      </c>
+      <c r="D42">
+        <v>300</v>
+      </c>
+      <c r="E42" s="43">
+        <f t="shared" si="8"/>
+        <v>75000</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>75000</v>
+      </c>
+      <c r="H42" s="43">
+        <f t="shared" si="10"/>
+        <v>-66266.363636363632</v>
+      </c>
+      <c r="I42" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="43">
+        <v>250</v>
+      </c>
+      <c r="D43">
+        <v>400</v>
+      </c>
+      <c r="E43" s="43">
+        <f t="shared" si="8"/>
+        <v>100000</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>100000</v>
+      </c>
+      <c r="H43" s="43">
+        <f t="shared" si="10"/>
+        <v>-43021.818181818177</v>
+      </c>
+      <c r="I43" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="43">
+        <v>250</v>
+      </c>
+      <c r="D44">
+        <v>500</v>
+      </c>
+      <c r="E44" s="43">
+        <f t="shared" si="8"/>
+        <v>125000</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>125000</v>
+      </c>
+      <c r="H44" s="43">
+        <f t="shared" si="10"/>
+        <v>-19777.272727272724</v>
+      </c>
+      <c r="I44" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="43">
+        <v>250</v>
+      </c>
+      <c r="D45">
+        <v>600</v>
+      </c>
+      <c r="E45" s="43">
+        <f t="shared" si="8"/>
+        <v>150000</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>150000</v>
+      </c>
+      <c r="H45" s="43">
+        <f t="shared" si="10"/>
+        <v>3467.2727272727279</v>
+      </c>
+      <c r="I45" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="43">
+        <v>250</v>
+      </c>
+      <c r="D46">
+        <v>700</v>
+      </c>
+      <c r="E46" s="43">
+        <f t="shared" si="8"/>
+        <v>175000</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="9"/>
+        <v>175000</v>
+      </c>
+      <c r="H46" s="43">
+        <f t="shared" si="10"/>
+        <v>26711.818181818191</v>
+      </c>
+      <c r="I46" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="43">
+        <v>250</v>
+      </c>
+      <c r="D47">
+        <v>800</v>
+      </c>
+      <c r="E47" s="43">
+        <f t="shared" si="8"/>
+        <v>200000</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="9"/>
+        <v>200000</v>
+      </c>
+      <c r="H47" s="43">
+        <f t="shared" si="10"/>
+        <v>49956.363636363647</v>
+      </c>
+      <c r="I47" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="43">
+        <v>250</v>
+      </c>
+      <c r="D48">
+        <v>900</v>
+      </c>
+      <c r="E48" s="43">
+        <f t="shared" si="8"/>
+        <v>225000</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="9"/>
+        <v>225000</v>
+      </c>
+      <c r="H48" s="43">
+        <f t="shared" si="10"/>
+        <v>73200.909090909088</v>
+      </c>
+      <c r="I48" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="43">
+        <v>250</v>
+      </c>
+      <c r="D49">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="43">
+        <f t="shared" si="8"/>
+        <v>250000</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="9"/>
+        <v>250000</v>
+      </c>
+      <c r="H49" s="43">
+        <f t="shared" si="10"/>
+        <v>96445.454545454559</v>
+      </c>
+      <c r="I49" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="43">
+        <v>250</v>
+      </c>
+      <c r="D50">
+        <v>1100</v>
+      </c>
+      <c r="E50" s="43">
+        <f t="shared" si="8"/>
+        <v>275000</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="9"/>
+        <v>275000</v>
+      </c>
+      <c r="H50" s="43">
+        <f t="shared" si="10"/>
+        <v>119690</v>
+      </c>
+      <c r="I50" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="43">
+        <v>250</v>
+      </c>
+      <c r="D51">
+        <v>1200</v>
+      </c>
+      <c r="E51" s="43">
+        <f t="shared" si="8"/>
+        <v>300000</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="9"/>
+        <v>300000</v>
+      </c>
+      <c r="H51" s="43">
+        <f t="shared" si="10"/>
+        <v>142934.54545454547</v>
+      </c>
+      <c r="I51" s="43">
+        <f t="shared" si="11"/>
+        <v>74.454545454545453</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A2:A8"/>
+  <mergeCells count="4">
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A22:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2134,12 +2687,1539 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:I30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="43">
+        <v>359000</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E12" si="0">C1*D1</f>
+        <v>1077000</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:G30" si="1">E1*F1</f>
+        <v>1077000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="43">
+        <v>14000</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>42000</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="1"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="43">
+        <v>5000</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="43">
+        <f>C6*25+C7*25+C8*25+C9*25+C10*25+C11*25 + 2000</f>
+        <v>87350</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>262050</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>262050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="45">
+        <f>SUM(C1:C4)</f>
+        <v>465350</v>
+      </c>
+      <c r="D5" s="46">
+        <v>1</v>
+      </c>
+      <c r="E5" s="46">
+        <f>SUM(E1:E4)</f>
+        <v>1396050</v>
+      </c>
+      <c r="F5" s="46">
+        <v>1</v>
+      </c>
+      <c r="G5" s="47">
+        <f t="shared" si="1"/>
+        <v>1396050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="43">
+        <v>569</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="43">
+        <v>569</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="43">
+        <v>569</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="43">
+        <v>569</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="43">
+        <v>569</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="43">
+        <v>569</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46">
+        <f>SUM(D6:D11)</f>
+        <v>180</v>
+      </c>
+      <c r="E12" s="46">
+        <f>SUM(E6:E11)</f>
+        <v>102420</v>
+      </c>
+      <c r="F12" s="46">
+        <v>1</v>
+      </c>
+      <c r="G12" s="47">
+        <f t="shared" si="1"/>
+        <v>102420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="43">
+        <v>5000</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E14" si="2">C13*D13</f>
+        <v>15000</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13" si="3">E13*F13</f>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="43">
+        <v>10000</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47">
+        <f>SUM(G13:G14)</f>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="48">
+        <f>G5+G12</f>
+        <v>1498470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="43">
+        <v>250</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="43">
+        <f>C18*D18</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="43">
+        <f>G18-'I этап'!$C$37 -$G$15- I18*D18+C18*0.1*D18</f>
+        <v>-188500</v>
+      </c>
+      <c r="I18" s="43">
+        <f>(C18+$C$6)*10/110</f>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="43">
+        <v>250</v>
+      </c>
+      <c r="D19">
+        <v>400</v>
+      </c>
+      <c r="E19" s="43">
+        <f t="shared" ref="E19:E30" si="4">C19*D19</f>
+        <v>100000</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="H19" s="43">
+        <f>G19-'I этап'!$C$37 -$G$15- I19*D19+C19*0.1*D19</f>
+        <v>-108281.81818181818</v>
+      </c>
+      <c r="I19" s="43">
+        <f t="shared" ref="I19:I30" si="5">(C19+$C$6)*10/110</f>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="43">
+        <v>250</v>
+      </c>
+      <c r="D20">
+        <v>800</v>
+      </c>
+      <c r="E20" s="43">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="H20" s="43">
+        <f>G20-'I этап'!$C$37 -$G$15- I20*D20+C20*0.1*D20</f>
+        <v>-28063.63636363636</v>
+      </c>
+      <c r="I20" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="43">
+        <v>250</v>
+      </c>
+      <c r="D21">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" si="4"/>
+        <v>300000</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="H21" s="43">
+        <f>G21-'I этап'!$C$37 -$G$15- I21*D21+C21*0.1*D21</f>
+        <v>52154.545454545456</v>
+      </c>
+      <c r="I21" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="43">
+        <v>250</v>
+      </c>
+      <c r="D22">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="43">
+        <f t="shared" si="4"/>
+        <v>400000</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+      <c r="H22" s="43">
+        <f>G22-'I этап'!$C$37 -$G$15- I22*D22+C22*0.1*D22</f>
+        <v>132372.72727272729</v>
+      </c>
+      <c r="I22" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="43">
+        <v>250</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="H23" s="43">
+        <f>G23-'I этап'!$C$37 -$G$15- I23*D23+C23*0.1*D23</f>
+        <v>212590.90909090909</v>
+      </c>
+      <c r="I23" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="43">
+        <v>250</v>
+      </c>
+      <c r="D24">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="4"/>
+        <v>600000</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>600000</v>
+      </c>
+      <c r="H24" s="43">
+        <f>G24-'I этап'!$C$37 -$G$15- I24*D24+C24*0.1*D24</f>
+        <v>292809.09090909094</v>
+      </c>
+      <c r="I24" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="43">
+        <v>250</v>
+      </c>
+      <c r="D25">
+        <v>2800</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>700000</v>
+      </c>
+      <c r="H25" s="43">
+        <f>G25-'I этап'!$C$37 -$G$15- I25*D25+C25*0.1*D25</f>
+        <v>373027.27272727271</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="43">
+        <v>250</v>
+      </c>
+      <c r="D26">
+        <v>3200</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="4"/>
+        <v>800000</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="H26" s="43">
+        <f>G26-'I этап'!$C$37 -$G$15- I26*D26+C26*0.1*D26</f>
+        <v>453245.45454545459</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="43">
+        <v>250</v>
+      </c>
+      <c r="D27">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="43">
+        <f t="shared" si="4"/>
+        <v>900000</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+      <c r="H27" s="43">
+        <f>G27-'I этап'!$C$37 -$G$15- I27*D27+C27*0.1*D27</f>
+        <v>533463.63636363635</v>
+      </c>
+      <c r="I27" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="43">
+        <v>250</v>
+      </c>
+      <c r="D28">
+        <v>4000</v>
+      </c>
+      <c r="E28" s="43">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="43">
+        <f>G28-'I этап'!$C$37 -$G$15- I28*D28+C28*0.1*D28</f>
+        <v>613681.81818181812</v>
+      </c>
+      <c r="I28" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="43">
+        <v>250</v>
+      </c>
+      <c r="D29">
+        <v>4400</v>
+      </c>
+      <c r="E29" s="43">
+        <f t="shared" si="4"/>
+        <v>1100000</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
+      <c r="H29" s="43">
+        <f>G29-'I этап'!$C$37 -$G$15- I29*D29+C29*0.1*D29</f>
+        <v>693900</v>
+      </c>
+      <c r="I29" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="43">
+        <v>250</v>
+      </c>
+      <c r="D30">
+        <v>4800</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" si="4"/>
+        <v>1200000</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1200000</v>
+      </c>
+      <c r="H30" s="43">
+        <f>G30-'I этап'!$C$37 -$G$15- I30*D30+C30*0.1*D30</f>
+        <v>774118.18181818188</v>
+      </c>
+      <c r="I30" s="43">
+        <f t="shared" si="5"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="43">
+        <v>251000</v>
+      </c>
+      <c r="D1">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E12" si="0">C1*D1</f>
+        <v>12550000</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:G30" si="1">E1*F1</f>
+        <v>12550000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="43">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="43">
+        <v>5000</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="43">
+        <f>C6*25+C7*25+C8*25+C9*25+C10*25+C11*25 + 2000</f>
+        <v>87350</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4367500</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4367500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="45">
+        <f>SUM(C1:C4)</f>
+        <v>348350</v>
+      </c>
+      <c r="D5" s="46">
+        <v>1</v>
+      </c>
+      <c r="E5" s="46">
+        <f>SUM(E1:E4)</f>
+        <v>17417500</v>
+      </c>
+      <c r="F5" s="46">
+        <v>1</v>
+      </c>
+      <c r="G5" s="47">
+        <f t="shared" si="1"/>
+        <v>17417500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="43">
+        <v>569</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="43">
+        <v>569</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="43">
+        <v>569</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="43">
+        <v>569</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="43">
+        <v>569</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="43">
+        <v>569</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>17070</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>17070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46">
+        <f>SUM(D6:D11)</f>
+        <v>180</v>
+      </c>
+      <c r="E12" s="46">
+        <f>SUM(E6:E11)</f>
+        <v>102420</v>
+      </c>
+      <c r="F12" s="46">
+        <v>1</v>
+      </c>
+      <c r="G12" s="47">
+        <f t="shared" si="1"/>
+        <v>102420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="43">
+        <v>5000</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E14" si="2">C13*D13</f>
+        <v>250000</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="43">
+        <v>10000</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>500000</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47">
+        <f>SUM(G13:G14)</f>
+        <v>875000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="48">
+        <f>G5+G12</f>
+        <v>17519920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="43">
+        <v>250</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="43">
+        <f>C18*D18</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="43">
+        <f>G18-'I этап'!$C$37 -$G$15- I18*D18+C18*0.1*D18</f>
+        <v>-1011000</v>
+      </c>
+      <c r="I18" s="43">
+        <f>(C18+$C$6)*10/110</f>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="43">
+        <v>250</v>
+      </c>
+      <c r="D19">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="43">
+        <f t="shared" ref="E19:E30" si="3">C19*D19</f>
+        <v>1250000</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1250000</v>
+      </c>
+      <c r="H19" s="43">
+        <f>G19-'I этап'!$C$37 -$G$15- I19*D19+C19*0.1*D19</f>
+        <v>-8272.7272727272939</v>
+      </c>
+      <c r="I19" s="43">
+        <f t="shared" ref="I19:I30" si="4">(C19+$C$6)*10/110</f>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="43">
+        <v>250</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="43">
+        <f t="shared" si="3"/>
+        <v>2500000</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="H20" s="43">
+        <f>G20-'I этап'!$C$37 -$G$15- I20*D20+C20*0.1*D20</f>
+        <v>994454.54545454541</v>
+      </c>
+      <c r="I20" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="43">
+        <v>250</v>
+      </c>
+      <c r="D21">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" si="3"/>
+        <v>3750000</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>3750000</v>
+      </c>
+      <c r="H21" s="43">
+        <f>G21-'I этап'!$C$37 -$G$15- I21*D21+C21*0.1*D21</f>
+        <v>1997181.8181818181</v>
+      </c>
+      <c r="I21" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="43">
+        <v>250</v>
+      </c>
+      <c r="D22">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="43">
+        <f t="shared" si="3"/>
+        <v>5000000</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="H22" s="43">
+        <f>G22-'I этап'!$C$37 -$G$15- I22*D22+C22*0.1*D22</f>
+        <v>2999909.0909090908</v>
+      </c>
+      <c r="I22" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="43">
+        <v>250</v>
+      </c>
+      <c r="D23">
+        <v>25000</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="3"/>
+        <v>6250000</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>6250000</v>
+      </c>
+      <c r="H23" s="43">
+        <f>G23-'I этап'!$C$37 -$G$15- I23*D23+C23*0.1*D23</f>
+        <v>4002636.3636363638</v>
+      </c>
+      <c r="I23" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="43">
+        <v>250</v>
+      </c>
+      <c r="D24">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="3"/>
+        <v>7500000</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>7500000</v>
+      </c>
+      <c r="H24" s="43">
+        <f>G24-'I этап'!$C$37 -$G$15- I24*D24+C24*0.1*D24</f>
+        <v>5005363.6363636367</v>
+      </c>
+      <c r="I24" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="43">
+        <v>250</v>
+      </c>
+      <c r="D25">
+        <v>35000</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="3"/>
+        <v>8750000</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>8750000</v>
+      </c>
+      <c r="H25" s="43">
+        <f>G25-'I этап'!$C$37 -$G$15- I25*D25+C25*0.1*D25</f>
+        <v>6008090.9090909092</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="43">
+        <v>250</v>
+      </c>
+      <c r="D26">
+        <v>40000</v>
+      </c>
+      <c r="E26" s="43">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="H26" s="43">
+        <f>G26-'I этап'!$C$37 -$G$15- I26*D26+C26*0.1*D26</f>
+        <v>7010818.1818181816</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="43">
+        <v>250</v>
+      </c>
+      <c r="D27">
+        <v>45000</v>
+      </c>
+      <c r="E27" s="43">
+        <f t="shared" si="3"/>
+        <v>11250000</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>11250000</v>
+      </c>
+      <c r="H27" s="43">
+        <f>G27-'I этап'!$C$37 -$G$15- I27*D27+C27*0.1*D27</f>
+        <v>8013545.4545454551</v>
+      </c>
+      <c r="I27" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="43">
+        <v>250</v>
+      </c>
+      <c r="D28">
+        <v>50000</v>
+      </c>
+      <c r="E28" s="43">
+        <f t="shared" si="3"/>
+        <v>12500000</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>12500000</v>
+      </c>
+      <c r="H28" s="43">
+        <f>G28-'I этап'!$C$37 -$G$15- I28*D28+C28*0.1*D28</f>
+        <v>9016272.7272727266</v>
+      </c>
+      <c r="I28" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="43">
+        <v>250</v>
+      </c>
+      <c r="D29">
+        <v>55000</v>
+      </c>
+      <c r="E29" s="43">
+        <f t="shared" si="3"/>
+        <v>13750000</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>13750000</v>
+      </c>
+      <c r="H29" s="43">
+        <f>G29-'I этап'!$C$37 -$G$15- I29*D29+C29*0.1*D29</f>
+        <v>10019000</v>
+      </c>
+      <c r="I29" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="43">
+        <v>250</v>
+      </c>
+      <c r="D30">
+        <v>60000</v>
+      </c>
+      <c r="E30" s="43">
+        <f t="shared" si="3"/>
+        <v>15000000</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>15000000</v>
+      </c>
+      <c r="H30" s="43">
+        <f>G30-'I этап'!$C$37 -$G$15- I30*D30+C30*0.1*D30</f>
+        <v>11021727.272727273</v>
+      </c>
+      <c r="I30" s="43">
+        <f t="shared" si="4"/>
+        <v>74.454545454545453</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>